--- a/src/assets/solo-cards.xlsx
+++ b/src/assets/solo-cards.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\github\brdgm\stroganov-solo-helper\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F77D73-D727-4524-B542-D92B6A4C0209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7364E1CE-19D3-4D84-B77F-849580F27CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{114B4D46-EDBA-49D1-AB8D-22D88B9615CF}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{114B4D46-EDBA-49D1-AB8D-22D88B9615CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$G$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>d</t>
   </si>
@@ -116,12 +118,18 @@
   </si>
   <si>
     <t>ae</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,8 +165,36 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{99C95192-9AE8-485F-BFEE-5DFF2C058190}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -467,350 +503,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B30B27D-F380-4E4D-8DBB-99B586A38CBD}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
       <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G19" xr:uid="{7B30B27D-F380-4E4D-8DBB-99B586A38CBD}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>